--- a/game27/web.xlsx
+++ b/game27/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="10080"/>
+    <workbookView windowWidth="13200" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>domain</t>
   </si>
@@ -48,38 +48,56 @@
     <t>json</t>
   </si>
   <si>
-    <t>gubbinse.top</t>
-  </si>
-  <si>
-    <t>#bd9683</t>
-  </si>
-  <si>
-    <t>tazzas.top</t>
-  </si>
-  <si>
-    <t>#38dbf8</t>
-  </si>
-  <si>
-    <t>snoodes.top</t>
-  </si>
-  <si>
-    <t>#ff6b35</t>
-  </si>
-  <si>
-    <t>fipples.fun</t>
-  </si>
-  <si>
-    <t>#4caf50</t>
-  </si>
-  <si>
-    <t>jabots.fun</t>
-  </si>
-  <si>
-    <t>#bce3fe</t>
+    <t>play.effulge.cloud</t>
+  </si>
+  <si>
+    <t>#f0ff31</t>
+  </si>
+  <si>
+    <t>play.undulate.cloud</t>
+  </si>
+  <si>
+    <t>#27456c</t>
+  </si>
+  <si>
+    <t>play.propaga.cloud</t>
+  </si>
+  <si>
+    <t>#98b0ca</t>
+  </si>
+  <si>
+    <t>play.reverber.cloud</t>
+  </si>
+  <si>
+    <t>#e3a841</t>
+  </si>
+  <si>
+    <t>play.excogit.cloud</t>
+  </si>
+  <si>
+    <t>#bdd0c4</t>
+  </si>
+  <si>
+    <t>sec.effulge.cloud</t>
+  </si>
+  <si>
+    <t>sec.undulate.cloud</t>
+  </si>
+  <si>
+    <t>sec.propaga.cloud</t>
+  </si>
+  <si>
+    <t>sec.reverber.cloud</t>
+  </si>
+  <si>
+    <t>sec.excogit.cloud</t>
   </si>
   <si>
     <t xml:space="preserve">sec.logorrhea.site
 </t>
+  </si>
+  <si>
+    <t>#bd9683</t>
   </si>
   <si>
     <t>sec.horizonfun.fun</t>
@@ -200,7 +218,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +289,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -562,31 +587,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA23"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF38DBF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6B35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4CAF50"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE3FE"/>
+        <fgColor rgb="FFF0FF31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF27456C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98B0CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3A841"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD0C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,133 +926,133 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,22 +1149,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1524,15 +1549,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1622,13 +1647,88 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="gubbinse.top"/>
-    <hyperlink ref="A3" r:id="rId2" display="tazzas.top"/>
-    <hyperlink ref="A4" r:id="rId3" display="snoodes.top"/>
-    <hyperlink ref="A5" r:id="rId4" display="fipples.fun"/>
-    <hyperlink ref="A6" r:id="rId5" display="jabots.fun"/>
+    <hyperlink ref="A2" r:id="rId1" display="play.effulge.cloud"/>
+    <hyperlink ref="A3" r:id="rId2" display="play.undulate.cloud"/>
+    <hyperlink ref="A4" r:id="rId3" display="play.propaga.cloud"/>
+    <hyperlink ref="A5" r:id="rId4" display="play.reverber.cloud"/>
+    <hyperlink ref="A6" r:id="rId5" display="play.excogit.cloud"/>
+    <hyperlink ref="A7" r:id="rId1" display="sec.effulge.cloud"/>
+    <hyperlink ref="A8" r:id="rId2" display="sec.undulate.cloud"/>
+    <hyperlink ref="A9" r:id="rId3" display="sec.propaga.cloud"/>
+    <hyperlink ref="A10" r:id="rId4" display="sec.reverber.cloud"/>
+    <hyperlink ref="A11" r:id="rId5" display="sec.excogit.cloud"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1668,10 +1768,10 @@
     </row>
     <row r="2" ht="22.5" spans="1:5">
       <c r="A2" s="27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2">
@@ -1683,10 +1783,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3">
@@ -1737,57 +1837,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1827,18 +1927,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1878,61 +1978,61 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:10">
@@ -1942,10 +2042,10 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="I7" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1955,10 +2055,10 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="I8" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1968,10 +2068,10 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="I9" s="19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10">
